--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383798.617658674</v>
+        <v>1380042.227948887</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33372278.24812807</v>
+        <v>33372278.24812808</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835909</v>
+        <v>5915902.83483591</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3841326.551965393</v>
+        <v>3841326.551965392</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450802</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065502</v>
+        <v>73.70509454921283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.01028645237272</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>100.2854408696626</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305333</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080985</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515039</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.1518428283646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968188</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666289</v>
+        <v>68.51183699398415</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355141</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767917</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>161.8885638628829</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486283</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794988</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I13" t="n">
-        <v>49.412914063136</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758294</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U13" t="n">
-        <v>262.551345996766</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V13" t="n">
-        <v>79.14891137370846</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345929</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849432</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440543</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450802</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>292.5077384044621</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583093</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>123.2455287300096</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723391</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237272</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080985</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515039</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968188</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666289</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767917</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486283</v>
+        <v>150.0423489486285</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794988</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313599</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758294</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T16" t="n">
-        <v>226.773332220649</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U16" t="n">
-        <v>262.551345996766</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132954</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345929</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X16" t="n">
-        <v>124.2838203231042</v>
+        <v>18.42505205446997</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440543</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.5161728993885</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423214</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583093</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.5373356599059</v>
+        <v>44.98136171611043</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515039</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968188</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355141</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E19" t="n">
-        <v>16.32325224101299</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628829</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.69636260685456</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794988</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313599</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.773332220649</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U19" t="n">
-        <v>262.551345996766</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132954</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345929</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849432</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440543</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450802</v>
+        <v>224.5058864470154</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423214</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583093</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F20" t="n">
-        <v>240.2022057052469</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237256</v>
+        <v>27.01028645237272</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080985</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.1518428283646</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968188</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355141</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>161.8885638628829</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.69636260685499</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794988</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.412914063136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758294</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.773332220649</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U22" t="n">
-        <v>262.551345996766</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132954</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345929</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849432</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.48645310923834</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.90640189557448</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534325</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583093</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599059</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723391</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.01028645237272</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806004</v>
+        <v>194.9476873196907</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515039</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968188</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666289</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355141</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767917</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628829</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486283</v>
+        <v>150.0423489486285</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794988</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313599</v>
+        <v>49.41291406313616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758294</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206487</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
         <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132954</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345929</v>
+        <v>256.2547207345931</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849432</v>
+        <v>229.8864174849434</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440543</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>125.772551531227</v>
+        <v>177.6948077697971</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108076</v>
+        <v>142.9822731108081</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,16 +2794,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>29.02193841607531</v>
+        <v>300.8432539448259</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>89.91525306713483</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>196.2187683590028</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108076</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.4450760336518</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.9036028743018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>38.01997492189423</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>32.01788871693542</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>123.909917456768</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3520,7 +3520,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>187.8691367869459</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.17376000763791</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681959</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>110.4014618658218</v>
       </c>
       <c r="U41" t="n">
-        <v>24.22305971739544</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3957,16 +3957,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.57581449409113</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.74683089764768</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>212.1298045009513</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>156.7012890994291</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>75.0311791538914</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>170.816572176826</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.7448508485004</v>
+        <v>932.9348018267171</v>
       </c>
       <c r="C11" t="n">
-        <v>303.7448508485004</v>
+        <v>507.9755811666842</v>
       </c>
       <c r="D11" t="n">
-        <v>303.7448508485004</v>
+        <v>507.9755811666842</v>
       </c>
       <c r="E11" t="n">
-        <v>303.7448508485004</v>
+        <v>507.9755811666842</v>
       </c>
       <c r="F11" t="n">
-        <v>303.7448508485004</v>
+        <v>507.9755811666842</v>
       </c>
       <c r="G11" t="n">
-        <v>303.7448508485004</v>
+        <v>121.6561420027051</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U11" t="n">
-        <v>2259.029152326865</v>
+        <v>2087.157020497134</v>
       </c>
       <c r="V11" t="n">
-        <v>1909.595454417235</v>
+        <v>1737.723322587504</v>
       </c>
       <c r="W11" t="n">
-        <v>1517.923251984812</v>
+        <v>1346.051120155081</v>
       </c>
       <c r="X11" t="n">
-        <v>1111.964040720667</v>
+        <v>1346.051120155081</v>
       </c>
       <c r="Y11" t="n">
-        <v>716.8611691768643</v>
+        <v>1346.051120155081</v>
       </c>
     </row>
     <row r="12">
@@ -5117,10 +5117,10 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
         <v>335.7952991210681</v>
@@ -5129,16 +5129,16 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1000.009076127824</v>
+        <v>708.364529880947</v>
       </c>
       <c r="C13" t="n">
-        <v>840.6306167675929</v>
+        <v>639.1606541294478</v>
       </c>
       <c r="D13" t="n">
-        <v>687.9358761256594</v>
+        <v>486.4659134875142</v>
       </c>
       <c r="E13" t="n">
-        <v>531.3611245329406</v>
+        <v>329.8911618947952</v>
       </c>
       <c r="F13" t="n">
-        <v>367.8373226512407</v>
+        <v>166.3673600130951</v>
       </c>
       <c r="G13" t="n">
-        <v>216.279394420303</v>
+        <v>166.3673600130951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.1185859561628</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895472</v>
@@ -5205,16 +5205,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>588.0160255186813</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M13" t="n">
-        <v>718.6204178572107</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P13" t="n">
         <v>2274.089213540313</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>2229.084291108515</v>
+        <v>2131.263605507686</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.880911313802</v>
+        <v>1866.060225712973</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.932515986823</v>
+        <v>1592.287969739947</v>
       </c>
       <c r="W13" t="n">
-        <v>1625.089363729659</v>
+        <v>1333.444817482782</v>
       </c>
       <c r="X13" t="n">
-        <v>1392.880861219615</v>
+        <v>1101.236314972738</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.644442690267</v>
+        <v>886.9998964433904</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1149.579845422804</v>
+        <v>592.2884772947316</v>
       </c>
       <c r="C14" t="n">
-        <v>854.1174833980946</v>
+        <v>592.2884772947316</v>
       </c>
       <c r="D14" t="n">
-        <v>854.1174833980946</v>
+        <v>592.2884772947316</v>
       </c>
       <c r="E14" t="n">
-        <v>433.5259907129337</v>
+        <v>171.6969846095705</v>
       </c>
       <c r="F14" t="n">
-        <v>433.5259907129337</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1785.022762535103</v>
       </c>
       <c r="W14" t="n">
-        <v>1968.655375015313</v>
+        <v>1393.35056010268</v>
       </c>
       <c r="X14" t="n">
-        <v>1562.696163751168</v>
+        <v>987.3913488385344</v>
       </c>
       <c r="Y14" t="n">
-        <v>1562.696163751168</v>
+        <v>592.2884772947316</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,19 +5363,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>683.7905336041907</v>
+        <v>790.7185823603857</v>
       </c>
       <c r="C16" t="n">
-        <v>524.4120742439595</v>
+        <v>790.7185823603857</v>
       </c>
       <c r="D16" t="n">
-        <v>524.4120742439595</v>
+        <v>638.0238417184521</v>
       </c>
       <c r="E16" t="n">
-        <v>367.8373226512407</v>
+        <v>481.4490901257331</v>
       </c>
       <c r="F16" t="n">
-        <v>367.8373226512407</v>
+        <v>317.925288244033</v>
       </c>
       <c r="G16" t="n">
-        <v>216.279394420303</v>
+        <v>166.3673600130951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.11858595616279</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>601.5415720081295</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>1185.722647426444</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N16" t="n">
-        <v>1755.480362387978</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O16" t="n">
-        <v>1873.24624373574</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540313</v>
@@ -5460,7 +5460,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
         <v>2229.084291108515</v>
@@ -5475,13 +5475,13 @@
         <v>1461.044683400726</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.201531143562</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X16" t="n">
-        <v>1076.662318695982</v>
+        <v>1183.590367452177</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.4259001666339</v>
+        <v>969.3539489228291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1305.208754337375</v>
+        <v>1160.459229577675</v>
       </c>
       <c r="C17" t="n">
-        <v>1305.208754337375</v>
+        <v>735.5000089176417</v>
       </c>
       <c r="D17" t="n">
-        <v>882.482221668364</v>
+        <v>735.5000089176417</v>
       </c>
       <c r="E17" t="n">
-        <v>461.8907289832031</v>
+        <v>735.5000089176417</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>690.0642900124797</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="X17" t="n">
-        <v>1954.368366183591</v>
+        <v>1160.459229577675</v>
       </c>
       <c r="Y17" t="n">
-        <v>1559.265494639788</v>
+        <v>1160.459229577675</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5588,7 +5588,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5603,7 +5603,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.3645298809483</v>
+        <v>708.3645298809474</v>
       </c>
       <c r="C19" t="n">
-        <v>548.9860705207171</v>
+        <v>548.9860705207161</v>
       </c>
       <c r="D19" t="n">
-        <v>396.2913298787837</v>
+        <v>396.2913298787825</v>
       </c>
       <c r="E19" t="n">
-        <v>379.8031963020029</v>
+        <v>239.7165782860635</v>
       </c>
       <c r="F19" t="n">
-        <v>216.279394420303</v>
+        <v>76.19277640436337</v>
       </c>
       <c r="G19" t="n">
-        <v>216.279394420303</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>97.11858595616279</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>744.9929992049549</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>992.686446150523</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954412</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5697,16 +5697,16 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.263605507686</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U19" t="n">
-        <v>1866.060225712973</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V19" t="n">
         <v>1592.287969739948</v>
@@ -5718,7 +5718,7 @@
         <v>1101.236314972739</v>
       </c>
       <c r="Y19" t="n">
-        <v>886.9998964433915</v>
+        <v>886.9998964433909</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1133.153067514488</v>
+        <v>1305.208754337376</v>
       </c>
       <c r="C20" t="n">
-        <v>1133.153067514488</v>
+        <v>1305.208754337376</v>
       </c>
       <c r="D20" t="n">
-        <v>710.4265348454761</v>
+        <v>882.4822216683644</v>
       </c>
       <c r="E20" t="n">
-        <v>289.8350421603152</v>
+        <v>461.8907289832033</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
         <v>2333.044459819077</v>
@@ -5791,13 +5791,13 @@
         <v>2333.044459819077</v>
       </c>
       <c r="W20" t="n">
-        <v>1941.372257386654</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.372257386654</v>
+        <v>1927.085248554932</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.269385842852</v>
+        <v>1531.982377011129</v>
       </c>
     </row>
     <row r="21">
@@ -5810,49 +5810,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
         <v>1676.651116233592</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.8763963041675</v>
+        <v>708.3645298809479</v>
       </c>
       <c r="C22" t="n">
-        <v>532.4979369439363</v>
+        <v>548.9860705207166</v>
       </c>
       <c r="D22" t="n">
-        <v>379.8031963020029</v>
+        <v>396.291329878783</v>
       </c>
       <c r="E22" t="n">
-        <v>379.8031963020029</v>
+        <v>239.7165782860639</v>
       </c>
       <c r="F22" t="n">
-        <v>216.279394420303</v>
+        <v>76.19277640436383</v>
       </c>
       <c r="G22" t="n">
-        <v>216.279394420303</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>97.1185859561628</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>718.6204178572107</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818745</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.816939373752</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V22" t="n">
-        <v>1461.044683400726</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.201531143562</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335182</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.5117628666108</v>
+        <v>886.9998964433913</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1702.391245422704</v>
+        <v>1580.652460793035</v>
       </c>
       <c r="C23" t="n">
-        <v>1277.432024762672</v>
+        <v>1155.693240133002</v>
       </c>
       <c r="D23" t="n">
-        <v>1277.432024762672</v>
+        <v>732.9667074639901</v>
       </c>
       <c r="E23" t="n">
-        <v>856.8405320775105</v>
+        <v>312.3752147788291</v>
       </c>
       <c r="F23" t="n">
-        <v>442.1563546432621</v>
+        <v>312.3752147788291</v>
       </c>
       <c r="G23" t="n">
-        <v>55.83691547928324</v>
+        <v>312.3752147788291</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928324</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="I23" t="n">
-        <v>127.0368657304638</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739091</v>
+        <v>707.5714735600089</v>
       </c>
       <c r="K23" t="n">
-        <v>520.9552913531298</v>
+        <v>943.8431239392299</v>
       </c>
       <c r="L23" t="n">
-        <v>814.0711662170304</v>
+        <v>1236.95899880313</v>
       </c>
       <c r="M23" t="n">
-        <v>1505.05299527316</v>
+        <v>1563.106886971918</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.478297249638</v>
+        <v>1894.532188948395</v>
       </c>
       <c r="O23" t="n">
-        <v>2149.433811790931</v>
+        <v>2207.487703489688</v>
       </c>
       <c r="P23" t="n">
-        <v>2416.534102970199</v>
+        <v>2474.587994668957</v>
       </c>
       <c r="Q23" t="n">
-        <v>2617.115297981267</v>
+        <v>2675.169189680024</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964162</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="S23" t="n">
-        <v>2791.845773964162</v>
+        <v>2764.562656335505</v>
       </c>
       <c r="T23" t="n">
-        <v>2593.257774589818</v>
+        <v>2567.64580045703</v>
       </c>
       <c r="U23" t="n">
-        <v>2593.257774589818</v>
+        <v>2321.758361135087</v>
       </c>
       <c r="V23" t="n">
-        <v>2593.257774589818</v>
+        <v>1972.324663225458</v>
       </c>
       <c r="W23" t="n">
-        <v>2593.257774589818</v>
+        <v>1580.652460793035</v>
       </c>
       <c r="X23" t="n">
-        <v>2187.298563325673</v>
+        <v>1580.652460793035</v>
       </c>
       <c r="Y23" t="n">
-        <v>1792.19569178187</v>
+        <v>1580.652460793035</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967193</v>
+        <v>551.2016689967194</v>
       </c>
       <c r="C24" t="n">
         <v>444.7452078333616</v>
       </c>
       <c r="D24" t="n">
-        <v>349.6549189799148</v>
+        <v>349.6549189799149</v>
       </c>
       <c r="E24" t="n">
-        <v>255.5345043068685</v>
+        <v>255.5345043068686</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230301</v>
+        <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>87.779565512687</v>
+        <v>87.77956551268704</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928324</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075935</v>
+        <v>90.05365165075932</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972264</v>
+        <v>183.9469909972265</v>
       </c>
       <c r="K24" t="n">
-        <v>344.4256630513966</v>
+        <v>344.4256630513967</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2090419264188</v>
+        <v>560.209041926419</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291161</v>
+        <v>812.0180672291165</v>
       </c>
       <c r="N24" t="n">
-        <v>1070.491728150436</v>
+        <v>1070.491728150437</v>
       </c>
       <c r="O24" t="n">
-        <v>1306.944630964966</v>
+        <v>1306.944630964967</v>
       </c>
       <c r="P24" t="n">
-        <v>1496.718931529772</v>
+        <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
         <v>1623.578025738007</v>
@@ -6110,10 +6110,10 @@
         <v>953.8587850583817</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972616</v>
+        <v>798.9913492972618</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764824</v>
+        <v>672.5055700764825</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058152</v>
+        <v>1008.639440058153</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979212</v>
+        <v>849.2609806979222</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559878</v>
+        <v>696.5662400559885</v>
       </c>
       <c r="E25" t="n">
-        <v>539.991488463269</v>
+        <v>539.9914884632694</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815688</v>
+        <v>376.4676865815694</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506311</v>
+        <v>224.9097583506316</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864913</v>
+        <v>105.7489498864915</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928324</v>
+        <v>55.8369154792833</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461562</v>
+        <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
         <v>572.88081948485</v>
@@ -6156,43 +6156,43 @@
         <v>1114.961502871109</v>
       </c>
       <c r="M25" t="n">
-        <v>1424.204642666949</v>
+        <v>1245.565895209638</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.703554470839</v>
+        <v>1551.703554470841</v>
       </c>
       <c r="O25" t="n">
-        <v>2089.138685044382</v>
+        <v>2089.138685044385</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192407</v>
+        <v>2537.41463519241</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287395</v>
+        <v>2775.374681287397</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964162</v>
+        <v>2791.845773964165</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.60248762494</v>
+        <v>2660.602487624943</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684891</v>
+        <v>2431.538515684893</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890177</v>
+        <v>2166.33513589018</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917152</v>
+        <v>1892.562879917154</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659987</v>
+        <v>1633.719727659989</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149944</v>
+        <v>1401.511225149945</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620596</v>
+        <v>1187.274806620597</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1754.189096973776</v>
+        <v>1936.416960311512</v>
       </c>
       <c r="C26" t="n">
-        <v>1627.146115629102</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="D26" t="n">
-        <v>1191.236330803547</v>
+        <v>1321.01747066798</v>
       </c>
       <c r="E26" t="n">
-        <v>757.4615859618418</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F26" t="n">
-        <v>329.5941563710495</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,28 +6226,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>898.4011797754013</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1224.549067944188</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1555.974369920666</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>1868.929884461958</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2136.030175641227</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
@@ -6256,22 +6256,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="W26" t="n">
-        <v>2588.77479115903</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="X26" t="n">
-        <v>2588.77479115903</v>
+        <v>2362.71653079642</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.488667458684</v>
+        <v>2362.71653079642</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620955</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647928</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
       </c>
       <c r="O27" t="n">
-        <v>1310.980320400643</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P27" t="n">
-        <v>1500.754620965449</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1627.613715173683</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R27" t="n">
         <v>1689.317169599597</v>
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6390,10 +6390,10 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>1035.900854931341</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1625.989114450783</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
         <v>1753.488026254673</v>
@@ -6411,7 +6411,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1228.593775347477</v>
+        <v>1495.11840549529</v>
       </c>
       <c r="C29" t="n">
-        <v>1199.27868603831</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="D29" t="n">
-        <v>763.3689012127543</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E29" t="n">
-        <v>329.5941563710495</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F29" t="n">
         <v>329.5941563710495</v>
@@ -6463,52 +6463,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527072</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1559.030341475336</v>
+        <v>1579.509431274413</v>
       </c>
       <c r="N29" t="n">
-        <v>1890.455643451814</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>2203.411157993106</v>
+        <v>2223.890247792183</v>
       </c>
       <c r="P29" t="n">
-        <v>2470.511449172376</v>
+        <v>2490.990538971452</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.32193295342</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="V29" t="n">
-        <v>2482.32193295342</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="W29" t="n">
-        <v>2482.32193295342</v>
+        <v>2329.704099680544</v>
       </c>
       <c r="X29" t="n">
-        <v>2063.179469532731</v>
+        <v>2329.704099680544</v>
       </c>
       <c r="Y29" t="n">
-        <v>1654.893345832385</v>
+        <v>1921.417975980198</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.2373584323959</v>
+        <v>555.2373584323961</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7808972690382</v>
+        <v>448.7808972690385</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155915</v>
+        <v>353.6906084155917</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425452</v>
+        <v>259.5701937425454</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587068</v>
+        <v>176.186355358707</v>
       </c>
       <c r="G30" t="n">
         <v>91.81525494836369</v>
@@ -6545,13 +6545,13 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620955</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647928</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6578,16 +6578,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V30" t="n">
-        <v>1143.217228760864</v>
+        <v>1143.217228760865</v>
       </c>
       <c r="W30" t="n">
-        <v>957.8944744940584</v>
+        <v>957.8944744940586</v>
       </c>
       <c r="X30" t="n">
-        <v>803.0270387329383</v>
+        <v>803.0270387329385</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.5412595121591</v>
+        <v>676.5412595121593</v>
       </c>
     </row>
     <row r="31">
@@ -6600,16 +6600,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6624,13 +6624,13 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>576.9165089205267</v>
+        <v>399.068262357779</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.997192306786</v>
+        <v>941.1489457440381</v>
       </c>
       <c r="M31" t="n">
-        <v>1709.085451826228</v>
+        <v>1531.237205263481</v>
       </c>
       <c r="N31" t="n">
         <v>2100.994920225015</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1193.371370787397</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="C32" t="n">
-        <v>1193.371370787397</v>
+        <v>1681.56251007067</v>
       </c>
       <c r="D32" t="n">
-        <v>757.4615859618418</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="E32" t="n">
-        <v>757.4615859618418</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F32" t="n">
-        <v>329.5941563710495</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G32" t="n">
         <v>329.5941563710495</v>
@@ -6700,25 +6700,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527072</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797971</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.7995967108</v>
@@ -6727,25 +6727,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2795.429469627792</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2432.812519561619</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.957064972652</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.957064972652</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.670941272305</v>
+        <v>2119.704982887247</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643652</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329036</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870738</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.244731362096</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647932</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6861,22 +6861,22 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>302.158054349391</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>844.23873773565</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1434.326997255092</v>
+        <v>1709.085451826228</v>
       </c>
       <c r="N34" t="n">
-        <v>2004.084712216626</v>
+        <v>2278.843166787762</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692549</v>
+        <v>2396.609048135524</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840574</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1152.340579151123</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C35" t="n">
-        <v>1152.340579151123</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662533</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596359</v>
+        <v>2170.989116807685</v>
       </c>
       <c r="W35" t="n">
-        <v>1957.244257596359</v>
+        <v>1766.133662218718</v>
       </c>
       <c r="X35" t="n">
-        <v>1538.10179417567</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y35" t="n">
-        <v>1152.340579151123</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="36">
@@ -6995,49 +6995,49 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
         <v>1676.651116233592</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>959.9477806029472</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C37" t="n">
-        <v>787.3860690861721</v>
+        <v>718.3318041774809</v>
       </c>
       <c r="D37" t="n">
-        <v>621.5080762876948</v>
+        <v>552.4538113790036</v>
       </c>
       <c r="E37" t="n">
-        <v>451.7500725384321</v>
+        <v>382.6958076297408</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9929992049549</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.174074623269</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150535</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.90103895197</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.90103895197</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2183.559737217692</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1896.604229088122</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.577824674414</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1379.186070007826</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>1151.766399321934</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1703.234501542678</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.072968758064</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D38" t="n">
-        <v>1578.072968758064</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131645</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131645</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131645</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1703.234501542678</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>1703.234501542678</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y38" t="n">
-        <v>1703.234501542678</v>
+        <v>2170.560772612438</v>
       </c>
     </row>
     <row r="39">
@@ -7232,46 +7232,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.4553742723976</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C40" t="n">
-        <v>691.8936627556226</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0156699571453</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895471</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>385.9158168003449</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>970.0968922186594</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527955</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.90103895197</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855377</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.26718290412</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.31167477455</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360842</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942541</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>890.8935156942541</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1312.719145276847</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C41" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D41" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895471</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
@@ -7423,10 +7423,10 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131645</v>
+        <v>2248.810949300442</v>
       </c>
       <c r="U41" t="n">
-        <v>2083.622219043367</v>
+        <v>1989.740257821956</v>
       </c>
       <c r="V41" t="n">
-        <v>1721.005268977193</v>
+        <v>1989.740257821956</v>
       </c>
       <c r="W41" t="n">
-        <v>1721.005268977193</v>
+        <v>1989.740257821956</v>
       </c>
       <c r="X41" t="n">
-        <v>1721.005268977193</v>
+        <v>1570.597794401267</v>
       </c>
       <c r="Y41" t="n">
-        <v>1312.719145276847</v>
+        <v>1570.597794401267</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.5506608361497</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>754.9889493193747</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>589.1109565208974</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
         <v>242.6458987333908</v>
@@ -7566,55 +7566,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.047382044526</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
         <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.90103895197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855377</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.26718290412</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.31167477455</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360842</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X43" t="n">
-        <v>1136.285270360842</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y43" t="n">
-        <v>1119.369279555137</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1532.8989903267</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="C44" t="n">
-        <v>1094.756517510123</v>
+        <v>1503.042641210471</v>
       </c>
       <c r="D44" t="n">
-        <v>880.4839877111824</v>
+        <v>1067.132856384916</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>633.3581115432107</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>205.4906819524185</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X44" t="n">
-        <v>1941.185114027046</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="Y44" t="n">
-        <v>1532.8989903267</v>
+        <v>1941.185114027048</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>864.4553742723976</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C46" t="n">
-        <v>691.8936627556226</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="D46" t="n">
-        <v>526.0156699571453</v>
+        <v>469.4606791888768</v>
       </c>
       <c r="E46" t="n">
-        <v>356.2576662078826</v>
+        <v>299.7026754396141</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>122.9956214013703</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>733.4227107706866</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M46" t="n">
-        <v>1317.603786189001</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N46" t="n">
-        <v>1887.361501150535</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.90103895197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855377</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855377</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1801.111822757573</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1529.085418343864</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1283.693663677277</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.273992991385</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8853,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>263.8716243249368</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8865,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>303.1049632594843</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>118.2717723303419</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>176.4173968858561</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>427.1594268546463</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>368.5191322094372</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.64029464520672</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9804,10 +9804,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>180.443179249809</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>180.4431792498117</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>81.10537790171122</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>545.8002937490523</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>338.4985296894106</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>418.9652501553962</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.940421495367</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>267.0813702978762</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>456.042979981009</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10521,13 +10521,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>340.6720587153136</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>244.2636390535695</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>435.0389037609862</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>59.72999935692019</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>311.3597349994975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>45.75904403824984</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534325</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423214</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583093</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599059</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723391</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>180.2678217573376</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237256</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806004</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U11" t="n">
-        <v>143.1431240590601</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>89.27283777264491</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.0423489486285</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.41291406313616</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T13" t="n">
-        <v>226.773332220649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8856220395869</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C14" t="n">
-        <v>128.2018900489703</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423214</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599059</v>
+        <v>287.2918069298964</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065502</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237255</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806004</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287227</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305333</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.1518428283646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355141</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628829</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313616</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.602597161839</v>
+        <v>211.4613654304734</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157.4689822456917</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534325</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>416.3855777583095</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>365.5559739437956</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723391</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065502</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237255</v>
+        <v>27.01028645237272</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806004</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287227</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305333</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080985</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>138.6857518357787</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486283</v>
+        <v>121.3459863417739</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.41291406313616</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758294</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>184.479268698065</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534325</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>170.335129954659</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723391</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065502</v>
+        <v>253.9729163065504</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806004</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287227</v>
+        <v>243.4285649287229</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305333</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515039</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767917</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486283</v>
+        <v>121.3459863417735</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313616</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.607601234816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.0787532495058</v>
+        <v>408.9851551450804</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423214</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.4562447723393</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065502</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237256</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.654432060909983</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287227</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305333</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080985</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.1518428283648</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>307.9884965571839</v>
+        <v>256.0662403186138</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>404.7391096723356</v>
+        <v>132.917794143585</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>341.6354339101651</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>60.26121620469837</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>22.20846298192714</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>22.29965958904131</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>136.9200085759671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>243.584876914809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>309.8511306316429</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>216.3341256763972</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.7266725241593</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>99.25207714975706</v>
       </c>
       <c r="U41" t="n">
-        <v>232.2569248463057</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>187.3620226258305</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.3986430813851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>219.4208824763486</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>238.8063753078885</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>88.06258942971536</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.2693808714479</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>285788.1154437904</v>
+        <v>285788.1154437902</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285788.1154437904</v>
+        <v>285788.1154437903</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>285788.1154437905</v>
+        <v>285788.1154437903</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>285788.1154437905</v>
+        <v>285788.1154437903</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>343719.770799503</v>
+        <v>343719.7707995031</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>270393.7049559406</v>
+        <v>270393.7049559407</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>270393.7049559406</v>
+        <v>270393.7049559407</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270393.7049559406</v>
+        <v>270393.7049559407</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>270393.7049559406</v>
+        <v>270393.7049559407</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>317146.2479258745</v>
+        <v>317146.2479258742</v>
       </c>
       <c r="F2" t="n">
-        <v>317146.2479258745</v>
+        <v>317146.2479258743</v>
       </c>
       <c r="G2" t="n">
-        <v>317146.2479258747</v>
+        <v>317146.2479258744</v>
       </c>
       <c r="H2" t="n">
-        <v>317146.2479258745</v>
+        <v>317146.2479258743</v>
       </c>
       <c r="I2" t="n">
         <v>358350.662204167</v>
       </c>
       <c r="J2" t="n">
-        <v>359337.610556964</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="K2" t="n">
-        <v>359337.6105569642</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="L2" t="n">
         <v>359337.6105569641</v>
@@ -26349,13 +26349,13 @@
         <v>298865.385471553</v>
       </c>
       <c r="N2" t="n">
-        <v>298865.3854715528</v>
+        <v>298865.385471553</v>
       </c>
       <c r="O2" t="n">
-        <v>298865.3854715529</v>
+        <v>298865.385471553</v>
       </c>
       <c r="P2" t="n">
-        <v>298865.3854715528</v>
+        <v>298865.385471553</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986584</v>
+        <v>561576.3366986583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396113</v>
+        <v>28687.43758396125</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385242</v>
+        <v>13198.92408385224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>30168.63856793435</v>
+        <v>30168.63856793416</v>
       </c>
       <c r="F4" t="n">
-        <v>30168.63856793432</v>
+        <v>30168.63856793418</v>
       </c>
       <c r="G4" t="n">
-        <v>30168.63856793432</v>
+        <v>30168.63856793418</v>
       </c>
       <c r="H4" t="n">
-        <v>30168.63856793434</v>
+        <v>30168.63856793418</v>
       </c>
       <c r="I4" t="n">
         <v>53468.22036949161</v>
       </c>
       <c r="J4" t="n">
-        <v>53380.18087258616</v>
+        <v>53380.18087258615</v>
       </c>
       <c r="K4" t="n">
-        <v>53380.18087258615</v>
+        <v>53380.18087258612</v>
       </c>
       <c r="L4" t="n">
-        <v>53380.18087258616</v>
+        <v>53380.18087258614</v>
       </c>
       <c r="M4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="O4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="P4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012662</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>47148.30100693079</v>
+      </c>
+      <c r="F5" t="n">
         <v>47148.3010069308</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>47148.3010069308</v>
+      </c>
+      <c r="H5" t="n">
         <v>47148.30100693081</v>
       </c>
-      <c r="G5" t="n">
-        <v>47148.30100693081</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47148.3010069308</v>
-      </c>
       <c r="I5" t="n">
-        <v>53707.37759398048</v>
+        <v>53707.37759398051</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-321747.028347649</v>
+        <v>-322252.8012580964</v>
       </c>
       <c r="F6" t="n">
-        <v>239829.3083510094</v>
+        <v>239323.5354405619</v>
       </c>
       <c r="G6" t="n">
-        <v>239829.3083510095</v>
+        <v>239323.535440562</v>
       </c>
       <c r="H6" t="n">
-        <v>239829.3083510094</v>
+        <v>239323.5354405619</v>
       </c>
       <c r="I6" t="n">
-        <v>222487.6266567339</v>
+        <v>222090.2864154396</v>
       </c>
       <c r="J6" t="n">
-        <v>237081.2238327237</v>
+        <v>236686.4808239373</v>
       </c>
       <c r="K6" t="n">
-        <v>250280.1479165763</v>
+        <v>249885.4049077895</v>
       </c>
       <c r="L6" t="n">
-        <v>250280.1479165762</v>
+        <v>249885.4049077895</v>
       </c>
       <c r="M6" t="n">
-        <v>126033.5651469917</v>
+        <v>125479.6847037697</v>
       </c>
       <c r="N6" t="n">
-        <v>233628.9440117884</v>
+        <v>233075.0635685666</v>
       </c>
       <c r="O6" t="n">
-        <v>233628.9440117885</v>
+        <v>233075.0635685666</v>
       </c>
       <c r="P6" t="n">
-        <v>233628.9440117884</v>
+        <v>233075.0635685666</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26801,16 +26801,16 @@
         <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910405</v>
+        <v>697.9614434910412</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291065</v>
+        <v>107.879549129107</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595869</v>
+        <v>50.44611794595801</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868688</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497845</v>
+        <v>13.05141963497827</v>
       </c>
     </row>
     <row r="26">
@@ -31761,7 +31761,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
@@ -31779,7 +31779,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.607267687947</v>
@@ -31788,10 +31788,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.150095092452091</v>
@@ -31834,19 +31834,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
@@ -31861,7 +31861,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -31870,7 +31870,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356904</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207636</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916826</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.841315974274</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,25 +35573,25 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>388.9936461616013</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
@@ -35658,10 +35658,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184533</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35807,22 +35807,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>404.8918886914878</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35971,10 +35971,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,22 +36044,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>250.1954009551192</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36132,7 +36132,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>308.3410255106332</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>586.3985937672173</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>697.9614434910404</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4954302857527</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916771</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,16 +36518,16 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
         <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>312.3668078745861</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>309.2299588497001</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36539,7 +36539,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>377.1820191783785</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548409</v>
@@ -36615,10 +36615,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.4075614369995</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>463.6205515260751</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36776,7 +36776,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>748.4075614369993</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>410.5476891833141</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108053</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811319</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>195.6669783595415</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447059</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>395.8681498977646</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37013,7 +37013,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>725.8412538994626</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916826</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37229,28 +37229,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893357</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>459.6274944201236</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>346.050564485573</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>563.8256833608746</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062833</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>184.8520211935847</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562422</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619339</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>440.1465145993859</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>170.8810658749144</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
